--- a/sample.xlsx
+++ b/sample.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,39 +649,59 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Итого доходы:</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="n">
-        <v>6641</v>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>16.04.2025</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>расходы</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">еда </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Итого расходы:</t>
+          <t>Итого доходы:</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr"/>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="n">
-        <v>6840</v>
+        <v>6641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Остаток:</t>
+          <t>Итого расходы:</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr"/>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="n">
-        <v>-199</v>
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Остаток:</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr"/>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="n">
+        <v>-449</v>
       </c>
     </row>
   </sheetData>
